--- a/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,12 +657,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>834794.82</t>
+          <t>842794.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,12 +741,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1547509.46</t>
+          <t>1549509.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +783,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>49600.00</t>
+          <t>51600.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -841,12 +909,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>322000.00</t>
+          <t>324000.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,12 +993,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>168390.00</t>
+          <t>170688.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1051,12 +1119,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>351000.00</t>
+          <t>354500.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1093,12 +1161,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,12 +1203,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>67391.77</t>
+          <t>71391.77</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1245,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94500.00</t>
+          <t>108000.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1287,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>216825.00</t>
+          <t>248325.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1261,12 +1329,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1303,12 +1371,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>410165.66</t>
+          <t>440665.66</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1345,12 +1413,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1365,12 +1433,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1455,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>65500.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1407,12 +1475,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1502,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1449,12 +1517,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1539,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>17500.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1491,12 +1559,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -1513,12 +1581,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>47000.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1533,12 +1601,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1623,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>71000.00</t>
+          <t>53000.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1575,12 +1643,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -1597,32 +1665,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>35000.00</t>
+          <t>77000.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bretagne</t>
+          <t>Bourgogne-Franche-Comté</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1707,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>74000.00</t>
+          <t>35000.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1659,12 +1727,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1749,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>85945.00</t>
+          <t>74000.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1701,12 +1769,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -1723,12 +1791,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>414908.00</t>
+          <t>85945.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1743,12 +1811,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1833,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>21500.00</t>
+          <t>414908.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1785,12 +1853,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1875,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>864496.00</t>
+          <t>21500.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1827,12 +1895,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1917,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>864496.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1869,12 +1937,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1959,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1911,12 +1979,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -1933,12 +2001,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1953,12 +2021,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -1975,12 +2043,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>95500.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1995,12 +2063,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2085,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>55500.00</t>
+          <t>95500.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2037,12 +2105,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2127,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>58350.00</t>
+          <t>55500.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2079,12 +2147,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2169,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>74551.38</t>
+          <t>58350.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2121,12 +2189,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2211,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>145893.00</t>
+          <t>74551.38</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,12 +2231,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -2185,32 +2253,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>32500.00</t>
+          <t>145893.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Centre-Val de Loire</t>
+          <t>Bretagne</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2295,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>58000.00</t>
+          <t>32500.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2247,12 +2315,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2337,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>118753.26</t>
+          <t>58000.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2289,12 +2357,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2379,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>255968.33</t>
+          <t>118753.26</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2331,12 +2399,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -2353,12 +2421,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>44100.00</t>
+          <t>255968.33</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2373,12 +2441,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2463,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>554975.00</t>
+          <t>44100.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2415,12 +2483,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2505,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>13100.00</t>
+          <t>560975.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2457,12 +2525,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2547,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>13100.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2499,12 +2567,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2589,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2541,12 +2609,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2631,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>62500.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2583,12 +2651,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2673,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>62500.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2625,12 +2693,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2715,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>51000.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2667,12 +2735,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -2689,12 +2757,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>51000.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2709,12 +2777,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2799,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>100456.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2751,12 +2819,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2841,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>128500.00</t>
+          <t>104456.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2793,12 +2861,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -2815,32 +2883,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>128500.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -2857,12 +2925,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>23000.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2877,12 +2945,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2967,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>65000.00</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2919,12 +2987,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -2941,12 +3009,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>133500.00</t>
+          <t>65000.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2961,12 +3029,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -2983,12 +3051,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>241336.66</t>
+          <t>133500.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,12 +3071,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3093,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>241336.66</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3045,12 +3113,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3135,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>23500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,12 +3155,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3177,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>84500.00</t>
+          <t>23500.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3129,12 +3197,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3219,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>26500.00</t>
+          <t>84500.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,12 +3239,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3261,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13000.00</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3213,12 +3281,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3303,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>17500.00</t>
+          <t>13000.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3255,12 +3323,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -3277,32 +3345,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>23000.00</t>
+          <t>17500.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3387,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>80500.00</t>
+          <t>23000.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,12 +3407,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3429,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>171987.00</t>
+          <t>80500.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,12 +3449,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -3403,12 +3471,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>436402.00</t>
+          <t>177987.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3423,12 +3491,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3513,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>43000.00</t>
+          <t>436402.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3465,12 +3533,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3555,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>875025.74</t>
+          <t>43000.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3507,12 +3575,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3597,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>875025.74</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3549,12 +3617,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3644,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3591,12 +3659,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3681,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>24500.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3633,12 +3701,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3723,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>123200.00</t>
+          <t>24500.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3675,12 +3743,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3765,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>58000.00</t>
+          <t>123200.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3717,12 +3785,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3807,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>79500.00</t>
+          <t>58000.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3759,12 +3827,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3849,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>19000.00</t>
+          <t>79500.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3801,12 +3869,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3891,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>101829.00</t>
+          <t>19000.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3843,12 +3911,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3933,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>180500.00</t>
+          <t>103829.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3885,12 +3953,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -3907,32 +3975,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>182500.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -3949,12 +4017,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>107495.14</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3969,12 +4037,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -3991,12 +4059,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>107500.00</t>
+          <t>107495.14</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4011,12 +4079,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4101,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>193000.00</t>
+          <t>107500.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4053,12 +4121,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4143,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>193000.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4095,12 +4163,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4185,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>207000.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4137,12 +4205,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4227,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>207000.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4179,12 +4247,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4269,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4221,12 +4289,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4311,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4263,12 +4331,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4353,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>70500.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4305,12 +4373,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4395,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>114500.00</t>
+          <t>70500.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4347,12 +4415,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4437,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>30200.00</t>
+          <t>114500.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4389,12 +4457,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4479,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>30200.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4431,12 +4499,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4521,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>33000.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4473,12 +4541,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4563,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>79500.00</t>
+          <t>33000.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4515,12 +4583,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4537,32 +4605,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>79500.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4647,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4599,12 +4667,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4689,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4641,12 +4709,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4731,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22500.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4683,12 +4751,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4773,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>22500.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4725,12 +4793,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -4752,7 +4820,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4767,12 +4835,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4862,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>13500.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4809,12 +4877,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4899,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>13500.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4851,12 +4919,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4941,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4893,12 +4961,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -4915,32 +4983,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -4957,12 +5025,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>68000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4977,12 +5045,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -4999,12 +5067,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>144877.00</t>
+          <t>68000.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5019,12 +5087,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5109,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>513500.00</t>
+          <t>144877.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5061,12 +5129,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5151,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>85471.58</t>
+          <t>513500.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5103,12 +5171,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5193,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>822328.55</t>
+          <t>85471.58</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5145,12 +5213,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5235,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>9000.00</t>
+          <t>822328.55</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5187,12 +5255,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5277,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5229,12 +5297,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5319,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>62500.00</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5271,12 +5339,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5361,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>148000.00</t>
+          <t>62500.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5313,12 +5381,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5403,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>61079.76</t>
+          <t>148000.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5355,12 +5423,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5445,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>98220.65</t>
+          <t>61079.76</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5397,12 +5465,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5487,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>98220.65</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5439,12 +5507,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5529,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>98271.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5481,12 +5549,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5571,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>198500.00</t>
+          <t>98271.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5523,12 +5591,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -5545,32 +5613,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>198500.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -5587,12 +5655,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>392070.00</t>
+          <t>26000.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5607,12 +5675,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5697,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>392070.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5649,12 +5717,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -5671,19 +5739,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>26500.00</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>Île-de-France</t>
@@ -5691,12 +5759,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
+          <t>Production et distribution d'électricité, de gaz, de vapeur et d'air conditionné</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5781,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1085300.00</t>
+          <t>26500.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5733,12 +5801,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Production et distribution d'eau ; assainissement, gestion des déchets et dépollution</t>
         </is>
       </c>
     </row>
@@ -5755,12 +5823,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3326842.03</t>
+          <t>1085300.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5775,12 +5843,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5865,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2530672.41</t>
+          <t>3326842.03</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5817,12 +5885,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5907,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>4319965.00</t>
+          <t>2530672.41</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5859,12 +5927,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5949,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>530500.00</t>
+          <t>4319965.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5901,12 +5969,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5991,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>228500.00</t>
+          <t>530500.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5943,12 +6011,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -5965,12 +6033,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>423000.00</t>
+          <t>228500.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5985,12 +6053,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6075,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1702830.00</t>
+          <t>423000.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6027,12 +6095,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6117,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>725</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>775226.00</t>
+          <t>1702830.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6069,12 +6137,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6159,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>574280.00</t>
+          <t>775226.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6111,12 +6179,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6133,12 +6201,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>258000.00</t>
+          <t>574280.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6153,12 +6221,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6175,12 +6243,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>521280.00</t>
+          <t>258000.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6195,12 +6263,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6285,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1471000.00</t>
+          <t>521280.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6237,12 +6305,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6259,32 +6327,32 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>665</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>1471000.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6369,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>110000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6321,12 +6389,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6343,12 +6411,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>96500.00</t>
+          <t>110000.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6363,12 +6431,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6453,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>270500.00</t>
+          <t>96500.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6405,12 +6473,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6495,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>270500.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6447,12 +6515,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6537,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>177000.00</t>
+          <t>38000.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6489,12 +6557,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6579,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>11500.00</t>
+          <t>177000.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6531,12 +6599,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -6553,12 +6621,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>16500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6573,12 +6641,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6663,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6615,12 +6683,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6705,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>101000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6657,12 +6725,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -6679,12 +6747,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>63984.00</t>
+          <t>101000.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6699,12 +6767,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6789,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>18000.00</t>
+          <t>63984.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6741,12 +6809,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6831,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>7500.00</t>
+          <t>18000.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6783,12 +6851,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -6805,12 +6873,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>25000.00</t>
+          <t>7500.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6825,12 +6893,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -6847,12 +6915,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>114000.00</t>
+          <t>25000.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6867,12 +6935,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -6889,32 +6957,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>37441.00</t>
+          <t>114000.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -6936,7 +7004,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>35500.00</t>
+          <t>37441.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6951,12 +7019,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -6973,12 +7041,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>113619.00</t>
+          <t>35500.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6993,12 +7061,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7015,12 +7083,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>354500.00</t>
+          <t>113619.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7035,12 +7103,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7125,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>354500.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7077,12 +7145,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7167,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>513121.81</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7119,12 +7187,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7209,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>513121.81</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7161,12 +7229,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7251,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7203,12 +7271,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7293,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>16000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7245,12 +7313,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7335,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>84862.79</t>
+          <t>16000.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7287,12 +7355,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7377,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>84862.79</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7329,12 +7397,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7419,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7371,12 +7439,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7461,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>18500.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7413,12 +7481,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7503,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>78000.00</t>
+          <t>18500.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7455,12 +7523,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7545,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>121500.00</t>
+          <t>78000.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7497,12 +7565,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -7519,7 +7587,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7529,22 +7597,22 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7629,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>126153.50</t>
+          <t>121500.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7581,12 +7649,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7671,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>265000.00</t>
+          <t>126153.50</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7623,12 +7691,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7713,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>814642.00</t>
+          <t>265000.00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7665,12 +7733,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7755,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>65500.00</t>
+          <t>816642.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7707,12 +7775,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7797,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1497302.79</t>
+          <t>65500.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7749,12 +7817,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7839,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>504</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>1502802.79</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7791,12 +7859,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7881,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>15000.00</t>
+          <t>55000.00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7833,12 +7901,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7923,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>15000.00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7875,12 +7943,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7965,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>357013.56</t>
+          <t>62000.00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7917,12 +7985,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -7939,12 +8007,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>120426.00</t>
+          <t>357013.56</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7959,12 +8027,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -7981,12 +8049,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>140000.00</t>
+          <t>120426.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8001,12 +8069,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8023,12 +8091,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>28500.00</t>
+          <t>140000.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8043,12 +8111,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8133,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>213855.29</t>
+          <t>28500.00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8085,12 +8153,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8175,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>250696.77</t>
+          <t>213855.29</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8127,12 +8195,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8149,32 +8217,32 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>92000.00</t>
+          <t>250696.77</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8259,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>111500.00</t>
+          <t>92000.00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8211,12 +8279,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8301,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>310120.07</t>
+          <t>111500.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8253,12 +8321,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8343,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>798828.00</t>
+          <t>310120.07</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8295,12 +8363,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8385,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>64000.00</t>
+          <t>798828.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8337,12 +8405,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8359,12 +8427,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1364130.76</t>
+          <t>64000.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8379,12 +8447,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8469,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>35000.00</t>
+          <t>1364130.76</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8421,12 +8489,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8511,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>19500.00</t>
+          <t>35000.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8463,12 +8531,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8553,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>93400.00</t>
+          <t>19500.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8505,12 +8573,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8595,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>291000.00</t>
+          <t>93400.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8547,12 +8615,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8637,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>77000.00</t>
+          <t>291000.00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8589,12 +8657,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8679,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>107500.00</t>
+          <t>77000.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8631,12 +8699,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8721,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>43500.00</t>
+          <t>107500.00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8673,12 +8741,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8763,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>161000.00</t>
+          <t>43500.00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8715,12 +8783,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8805,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>295000.00</t>
+          <t>161000.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8757,12 +8825,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -8779,32 +8847,32 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>295000.00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8889,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>52000.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8841,12 +8909,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8931,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>133000.00</t>
+          <t>57000.00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8883,12 +8951,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8973,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>357405.00</t>
+          <t>133000.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8925,12 +8993,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -8947,12 +9015,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>363405.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8967,12 +9035,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -8989,12 +9057,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>658309.01</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9009,12 +9077,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9099,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>11000.00</t>
+          <t>663809.01</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9051,12 +9119,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9073,12 +9141,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>11000.00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9093,12 +9161,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9183,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>28000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9135,12 +9203,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9225,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>164272.09</t>
+          <t>28000.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9177,12 +9245,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9267,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>40587.00</t>
+          <t>166272.09</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9219,12 +9287,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9309,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>56500.00</t>
+          <t>40587.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9261,12 +9329,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9351,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>22000.00</t>
+          <t>60000.00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9303,12 +9371,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9393,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>91000.00</t>
+          <t>27000.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9345,12 +9413,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9435,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>139500.00</t>
+          <t>95000.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9387,12 +9455,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Autres activités de services</t>
+          <t>Arts, spectacles et activités récréatives</t>
         </is>
       </c>
     </row>
@@ -9409,32 +9477,32 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>44000.00</t>
+          <t>143500.00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Agriculture, sylviculture et pêche</t>
+          <t>Autres activités de services</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9519,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>172038.00</t>
+          <t>44000.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9471,12 +9539,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Industrie manufacturière</t>
+          <t>Agriculture, sylviculture et pêche</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9561,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>325700.00</t>
+          <t>172038.00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9513,12 +9581,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Industrie manufacturière</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9603,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>1044000.00</t>
+          <t>325700.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9555,12 +9623,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Construction</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9645,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>406</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>135500.00</t>
+          <t>1044000.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9597,12 +9665,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Transports et entreposage</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9687,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>1909320.00</t>
+          <t>135500.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9639,12 +9707,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Hébergement et restauration</t>
+          <t>Transports et entreposage</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9729,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>744</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>63500.00</t>
+          <t>1909320.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9681,12 +9749,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Information et communication</t>
+          <t>Hébergement et restauration</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9771,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>39000.00</t>
+          <t>63500.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9723,12 +9791,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Activités financières et d'assurance</t>
+          <t>Information et communication</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9813,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>146000.00</t>
+          <t>39000.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9765,12 +9833,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Activités immobilières</t>
+          <t>Activités financières et d'assurance</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9855,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>335777.50</t>
+          <t>146000.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9807,12 +9875,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Activités spécialisées, scientifiques et techniques</t>
+          <t>Activités immobilières</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9897,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>234700.00</t>
+          <t>335777.50</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9849,12 +9917,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Activités de services administratifs et de soutien</t>
+          <t>Activités spécialisées, scientifiques et techniques</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9939,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>149500.00</t>
+          <t>234700.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9891,12 +9959,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Enseignement</t>
+          <t>Activités de services administratifs et de soutien</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9981,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>55000.00</t>
+          <t>149500.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9933,12 +10001,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Santé humaine et action sociale</t>
+          <t>Enseignement</t>
         </is>
       </c>
     </row>
@@ -9955,12 +10023,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>174700.00</t>
+          <t>55000.00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9975,12 +10043,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Arts, spectacles et activités récréatives</t>
+          <t>Santé humaine et action sociale</t>
         </is>
       </c>
     </row>
@@ -9997,30 +10065,72 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>174700.00</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Arts, spectacles et activités récréatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
           <t>187</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="D231" t="inlineStr">
         <is>
           <t>396500.00</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t>Autres activités de services</t>
         </is>
